--- a/openpyxl_test/reestr_podryadchiki.xlsx
+++ b/openpyxl_test/reestr_podryadchiki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eduard\Programming\Python\djprojects\xlsx_to_web\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Эдуард\Documents\GitHub\LoadPayRegs\openpyxl_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B299B17-2F76-497E-B1C8-828C29469C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA15442E-C107-43A2-94EE-B19326BA7FE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10605" yWindow="2700" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Дом № 68" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="214">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1106,25 +1106,25 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1490,8 +1490,8 @@
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1517,44 +1517,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
     </row>
     <row r="3" spans="1:17" ht="193.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
@@ -1721,9 +1721,7 @@
       <c r="D7" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>0</v>
-      </c>
+      <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="34">
@@ -2984,65 +2982,65 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="71" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" style="67" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="78" style="67" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="67" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" style="67" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" style="71" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="45.5703125" style="69" customWidth="1"/>
-    <col min="11" max="11" width="46.42578125" style="69" customWidth="1"/>
-    <col min="12" max="12" width="44.85546875" style="69" customWidth="1"/>
-    <col min="13" max="13" width="0.7109375" style="68" customWidth="1"/>
-    <col min="14" max="14" width="44.85546875" style="68" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="68.140625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" style="65" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="65" customWidth="1"/>
+    <col min="4" max="4" width="78" style="65" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" style="65" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" style="65" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" style="69" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="68" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" style="67" customWidth="1"/>
+    <col min="11" max="11" width="46.42578125" style="67" customWidth="1"/>
+    <col min="12" max="12" width="44.85546875" style="67" customWidth="1"/>
+    <col min="13" max="13" width="0.7109375" style="66" customWidth="1"/>
+    <col min="14" max="14" width="44.85546875" style="66" customWidth="1"/>
+    <col min="15" max="15" width="41.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="68.140625" style="65" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
     </row>
     <row r="3" spans="1:17" ht="193.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
@@ -4181,65 +4179,65 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="71" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" style="67" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="78" style="67" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="67" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" style="67" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" style="71" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="45.5703125" style="69" customWidth="1"/>
-    <col min="11" max="11" width="46.42578125" style="69" customWidth="1"/>
-    <col min="12" max="12" width="44.85546875" style="69" customWidth="1"/>
-    <col min="13" max="13" width="0.7109375" style="68" customWidth="1"/>
-    <col min="14" max="14" width="44.85546875" style="68" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="68.140625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" style="65" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="65" customWidth="1"/>
+    <col min="4" max="4" width="78" style="65" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" style="65" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" style="65" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" style="69" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="68" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" style="67" customWidth="1"/>
+    <col min="11" max="11" width="46.42578125" style="67" customWidth="1"/>
+    <col min="12" max="12" width="44.85546875" style="67" customWidth="1"/>
+    <col min="13" max="13" width="0.7109375" style="66" customWidth="1"/>
+    <col min="14" max="14" width="44.85546875" style="66" customWidth="1"/>
+    <col min="15" max="15" width="41.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="68.140625" style="65" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
     </row>
     <row r="3" spans="1:17" ht="193.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
